--- a/tests/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/fixtures/test_model_for_access_species_populations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -422,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -952,10 +951,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,9 +990,6 @@
       <c r="J1" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,10 +1061,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="202" zoomScaleNormal="202" zoomScalePageLayoutView="202" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A18"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1148,7 +1144,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1226,10 +1222,10 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/tests/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/fixtures/test_model_for_access_species_populations.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -53,12 +53,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$7</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$7</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$9</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$7</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$7</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$9</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -693,14 +693,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,7 +710,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="13" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1135,42 +1135,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="24" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="25" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="25" t="n"/>
@@ -1181,7 +1177,7 @@
     <row r="5">
       <c r="A5" s="25" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="25" t="n"/>
@@ -1192,220 +1188,231 @@
     <row r="6">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="25" t="n"/>
       <c r="C6" s="25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="25" t="n"/>
       <c r="C7" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="25" t="n"/>
       <c r="C8" s="25" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="25" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="25" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="25" t="n"/>
       <c r="C10" s="25" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="25" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="25" t="n"/>
       <c r="C11" s="25" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="25" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="25" t="n"/>
       <c r="C13" s="25" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="25" t="n"/>
       <c r="C14" s="25" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="25" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="25" t="n"/>
       <c r="C15" s="25" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="25" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="25" t="n"/>
       <c r="C16" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="25" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="25" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="25" t="n"/>
       <c r="C18" s="25" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="25" t="n"/>
       <c r="C19" s="25" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="25" t="n"/>
       <c r="C20" s="25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="25" t="n"/>
       <c r="C21" s="25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="25" t="n"/>
       <c r="C22" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="25" t="n"/>
       <c r="C23" s="25" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="25" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="25" t="n"/>
       <c r="C24" s="25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="25" t="n"/>
       <c r="C25" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="25" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1471,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1563,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="1" ySplit="2"/>
@@ -1685,7 +1692,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3999,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4230,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4326,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4421,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4527,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4767,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4849,7 +4856,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5033,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5200,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5284,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5446,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5574,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5669,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5786,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5884,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -5978,7 +5985,7 @@
     <row customFormat="1" customHeight="1" ht="15.1" r="1" s="12">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="1" ySplit="2"/>
@@ -6106,7 +6113,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8469,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8694,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8953,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/fixtures/test_model_for_access_species_populations.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -53,12 +53,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$7</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$7</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$9</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$7</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$7</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$9</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -693,14 +693,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,7 +710,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="6" fillId="13" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1135,42 +1135,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="24" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="25" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="25" t="n"/>
@@ -1181,7 +1177,7 @@
     <row r="5">
       <c r="A5" s="25" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="25" t="n"/>
@@ -1192,220 +1188,231 @@
     <row r="6">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="25" t="n"/>
       <c r="C6" s="25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="25" t="n"/>
       <c r="C7" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="25" t="n"/>
       <c r="C8" s="25" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="25" t="n"/>
       <c r="C9" s="25" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="25" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="25" t="n"/>
       <c r="C10" s="25" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="25" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="25" t="n"/>
       <c r="C11" s="25" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="25" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="25" t="n"/>
       <c r="C12" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="25" t="n"/>
       <c r="C13" s="25" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="25" t="n"/>
       <c r="C14" s="25" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="25" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="25" t="n"/>
       <c r="C15" s="25" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="25" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="25" t="n"/>
       <c r="C16" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="25" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="25" t="n"/>
       <c r="C17" s="25" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="25" t="n"/>
       <c r="C18" s="25" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="25" t="n"/>
       <c r="C19" s="25" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="25" t="n"/>
       <c r="C20" s="25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="25" t="n"/>
       <c r="C21" s="25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="25" t="n"/>
       <c r="C22" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="25" t="n"/>
       <c r="C23" s="25" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="25" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="25" t="n"/>
       <c r="C24" s="25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="25" t="n"/>
       <c r="C25" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="25" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1471,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1563,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="1" ySplit="2"/>
@@ -1685,7 +1692,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3999,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4230,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4326,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4421,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4527,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4767,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -4849,7 +4856,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5033,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5200,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5284,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5446,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5574,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5669,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5786,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5884,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -5978,7 +5985,7 @@
     <row customFormat="1" customHeight="1" ht="15.1" r="1" s="12">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="1" ySplit="2"/>
@@ -6106,7 +6113,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8469,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8694,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8953,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/fixtures/test_model_for_access_species_populations.xlsx
@@ -1404,7 +1404,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
     <row r="1" customFormat="1" s="23">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
     <row r="1" customFormat="1" s="23">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
     <row r="1" ht="15" customFormat="1" customHeight="1" s="8">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
